--- a/uncertainties/summary_spearman_1000.xlsx
+++ b/uncertainties/summary_spearman_1000.xlsx
@@ -1163,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5264490779206723</v>
+        <v>0.543159379380632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02061768800537614</v>
+        <v>0.03462164446110205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5185640665640666</v>
+        <v>0.5403156363156364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07424696624696625</v>
+        <v>0.02618759018759019</v>
       </c>
     </row>
     <row r="5">
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5002798768887369</v>
+        <v>0.5020290641980255</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01114055696365057</v>
+        <v>-0.008445939547065026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4908448428448429</v>
+        <v>0.4912283992283992</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03665599265599266</v>
+        <v>0.005537309537309537</v>
       </c>
     </row>
     <row r="6">
@@ -1277,13 +1277,17 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3237600869466094</v>
+        <v>-0.3186796886763195</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07629245632813539</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>-0.0662334606185799</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.2446357366357367</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.06370299970299971</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1297,16 +1301,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2565336500415433</v>
+        <v>-0.2420977060148927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2981288783484095</v>
+        <v>0.2779773565037251</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4107167547167547</v>
+        <v>-0.2296688416688417</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2064870024870025</v>
+        <v>0.3214435174435175</v>
       </c>
     </row>
     <row r="8">
@@ -1321,16 +1325,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.2414338618525043</v>
+        <v>-0.2350087232388652</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7134936545189151</v>
+        <v>-0.7088453776017377</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2044176004176004</v>
+        <v>-0.262946074946075</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7114951834951835</v>
+        <v>-0.6892574092574093</v>
       </c>
     </row>
     <row r="9">
@@ -1345,16 +1349,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2411505034779879</v>
+        <v>0.2199744090266342</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06754270067000084</v>
+        <v>-0.07000893273434844</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2467372747372747</v>
+        <v>0.239976491976492</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.06497094497094498</v>
+        <v>-0.04185744585744586</v>
       </c>
     </row>
     <row r="10">
@@ -1369,116 +1373,88 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2068036956424226</v>
+        <v>-0.2135499382705775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01684576565320863</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+        <v>0.01828411528718196</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.2612471972471972</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.008316416316416317</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Steam mixer-M203</t>
+          <t>Boiler turbogenerator-BT</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>PT solids loading [-]</t>
+          <t>Turbogenerator efficiency [-]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1091809742974991</v>
+        <v>-0.114744464297091</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2738566837736837</v>
+        <v>-0.2582097644792469</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1076235836235836</v>
+        <v>-0.1106946626946627</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3482648402648403</v>
+        <v>-0.2538670818670818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Steam mixer-M203</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Electricity production CF [kg CO2/kWh]</t>
+          <t>PT solids loading [-]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.03619790477107585</v>
+        <v>-0.1076742882845343</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3581431911232813</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+        <v>-0.2709989567316256</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.09525478725478725</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.2286868086868087</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator-BT</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Turbogenerator efficiency [-]</t>
+          <t>Electricity production CF [kg CO2/kWh]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.09866138929389626</v>
+        <v>-0.03689789419731949</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2529736291855504</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>biorefinery</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Natural gas CF [kg CO2/kg]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>-0.02389161589161589</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3957008517008517</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Stream-cornstover</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Cornstover CF [kg CO2/kg]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0.03413913413913414</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2356668076668077</v>
+        <v>-0.378068769236038</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0305939465939466</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.4242240882240882</v>
       </c>
     </row>
   </sheetData>

--- a/uncertainties/summary_spearman_1000.xlsx
+++ b/uncertainties/summary_spearman_1000.xlsx
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.543159379380632</v>
+        <v>0.5421585720400194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03462164446110205</v>
+        <v>0.04294243814725102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5403156363156364</v>
+        <v>0.5403094803094803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02618759018759019</v>
+        <v>0.02613839013839014</v>
       </c>
     </row>
     <row r="5">
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5020290641980255</v>
+        <v>0.5035866720729146</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.008445939547065026</v>
+        <v>-0.02174133221200371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4912283992283992</v>
+        <v>0.4911772431772432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005537309537309537</v>
+        <v>0.005540621540621541</v>
       </c>
     </row>
     <row r="6">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3186796886763195</v>
+        <v>-0.3295304796587641</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0662334606185799</v>
+        <v>-0.0631882504969296</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2446357366357367</v>
+        <v>-0.2447606447606447</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.06370299970299971</v>
+        <v>-0.06366848766848766</v>
       </c>
     </row>
     <row r="7">
@@ -1301,88 +1301,88 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2420977060148927</v>
+        <v>-0.2601459379527148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2779773565037251</v>
+        <v>0.2974594847371986</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2296688416688417</v>
+        <v>-0.2296919536919537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3214435174435175</v>
+        <v>0.3214855174855175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator-BT</t>
+          <t>Stream-cellulase</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Boiler efficiency [-]</t>
+          <t>Cellulase price [USD/kg]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.2350087232388652</v>
+        <v>0.2550524735121744</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7088453776017377</v>
+        <v>-0.0510253026753071</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.262946074946075</v>
+        <v>0.239924675924676</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6892574092574093</v>
+        <v>-0.04184693384693385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase</t>
+          <t>Boiler turbogenerator-BT</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Cellulase price [USD/kg]</t>
+          <t>Boiler efficiency [-]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2199744090266342</v>
+        <v>-0.247109131856544</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07000893273434844</v>
+        <v>-0.7223939590302501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.239976491976492</v>
+        <v>-0.2628872748872749</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04185744585744586</v>
+        <v>-0.6892494412494413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Steam mixer-M203</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [$/kWh]</t>
+          <t>PT solids loading [-]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2135499382705775</v>
+        <v>-0.1120660213555905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01828411528718196</v>
+        <v>-0.2675112904388318</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2612471972471972</v>
+        <v>-0.09528592728592729</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008316416316416317</v>
+        <v>-0.2286495246495247</v>
       </c>
     </row>
     <row r="11">
@@ -1397,71 +1397,64 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.114744464297091</v>
+        <v>-0.09853845136955813</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2582097644792469</v>
+        <v>-0.2485275716939876</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1106946626946627</v>
+        <v>-0.1106001746001746</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2538670818670818</v>
+        <v>-0.2538399378399379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Steam mixer-M203</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>PT solids loading [-]</t>
+          <t>Electricity production CF [kg CO2/kWh]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1076742882845343</v>
+        <v>-0.01953870175581226</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2709989567316256</v>
+        <v>-0.3407409178620361</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09525478725478725</v>
+        <v>-0.03046137046137046</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2286868086868087</v>
+        <v>-0.4242194682194683</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>biorefinery</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Electricity production CF [kg CO2/kWh]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.03689789419731949</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.378068769236038</v>
-      </c>
+          <t>Electricity price [$/kWh]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.0305939465939466</v>
+        <v>-0.2613142293142294</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4242240882240882</v>
+        <v>0.008307272307272308</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
